--- a/Cost of Resistance Database_cleaned.xlsx
+++ b/Cost of Resistance Database_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinge2/repos/cancer_fitness_costs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AF35F8-7825-7C47-9E9D-01140F639263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479AC154-B394-1044-950D-9E4A09E58848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
   <si>
     <t>Paper Title</t>
   </si>
@@ -408,6 +408,27 @@
   <si>
     <t>inf</t>
   </si>
+  <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>ACHN</t>
+  </si>
+  <si>
+    <t>10 bleomycin-resistant cell lines (not monoclonal) were generated by exposure of parental cells to stepwise BLM concentration increases of 0.5- to 2-fold over 16 to 24 months until at least 10-fold the initial concentration. Cells were maintained in the highest level of BLM achieved.</t>
+  </si>
+  <si>
+    <t>IC50 estimated from Fig. 1, doubling time estimated from Fig. 3</t>
+  </si>
+  <si>
+    <t>HOP</t>
+  </si>
+  <si>
+    <t>11 bleomycin-resistant cell lines (not monoclonal) were generated by exposure of parental cells to stepwise BLM concentration increases of 0.5- to 2-fold over 16 to 24 months until at least 10-fold the initial concentration. Cells were maintained in the highest level of BLM achieved.</t>
+  </si>
+  <si>
+    <t>IC50 estimated from Fig. 1, doubling time estimated from Fig. 4</t>
+  </si>
 </sst>
 </file>
 
@@ -424,18 +445,21 @@
       <sz val="10"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -446,11 +470,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -761,9 +787,9 @@
   </sheetPr>
   <dimension ref="A1:W1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1967,7 +1993,7 @@
         <v>35</v>
       </c>
       <c r="Q21" s="3">
-        <v>25.8</v>
+        <v>8</v>
       </c>
       <c r="R21" s="3">
         <v>79.5</v>
@@ -2211,32 +2237,114 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="13">
-      <c r="W26" s="3"/>
+      <c r="A26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14">
+        <v>10</v>
+      </c>
+      <c r="P26" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R26" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:23" ht="13">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="A27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2013</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14">
+        <v>10</v>
+      </c>
+      <c r="P27" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="28" spans="1:23" ht="16">
       <c r="A28" s="9"/>
